--- a/results/MultiThread_K_Nearest_Neighbors.xlsx
+++ b/results/MultiThread_K_Nearest_Neighbors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lilan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F47C59-FD3D-480D-BB91-DE48AB355934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0733B505-D809-4FC1-B5ED-152C16E6E195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{E6236B59-4891-4D4B-9523-26A88E559234}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="3" xr2:uid="{E6236B59-4891-4D4B-9523-26A88E559234}"/>
   </bookViews>
   <sheets>
     <sheet name="sequential" sheetId="1" r:id="rId1"/>
@@ -893,9 +893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F4ED21-579D-4865-B0D7-ABCD453F5A4D}">
   <dimension ref="A1:AJ17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AJ16" sqref="AJ16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4340,7 +4338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2E562E-04DF-4B25-A3D9-D448294E4592}">
   <dimension ref="A1:AJ17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -6062,8 +6060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF52060-4E13-43F9-8828-6A42ED24B99E}">
   <dimension ref="A1:AJ17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AI4" sqref="AI4"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6326,7 +6324,7 @@
         <v>735172</v>
       </c>
       <c r="O4" s="2">
-        <v>1071858</v>
+        <v>850266</v>
       </c>
       <c r="P4" s="7">
         <v>733907</v>
@@ -6436,7 +6434,7 @@
         <v>732790</v>
       </c>
       <c r="O5" s="2">
-        <v>1122220</v>
+        <v>837709</v>
       </c>
       <c r="P5" s="7">
         <v>780211</v>
@@ -6546,7 +6544,7 @@
         <v>735396</v>
       </c>
       <c r="O6" s="2">
-        <v>971137</v>
+        <v>838200</v>
       </c>
       <c r="P6" s="7">
         <v>734309</v>
@@ -6656,7 +6654,7 @@
         <v>736853</v>
       </c>
       <c r="O7" s="2">
-        <v>1079473</v>
+        <v>835446</v>
       </c>
       <c r="P7" s="7">
         <v>787989</v>
@@ -6766,7 +6764,7 @@
         <v>735233</v>
       </c>
       <c r="O8" s="2">
-        <v>1083266</v>
+        <v>835453</v>
       </c>
       <c r="P8" s="7">
         <v>732350</v>
@@ -6871,8 +6869,8 @@
         <v>1390343.4</v>
       </c>
       <c r="K9" s="9">
-        <f>AVERAGE(K4:K8)</f>
-        <v>1672978.6</v>
+        <f>AVERAGE(K4:K7)</f>
+        <v>1611624</v>
       </c>
       <c r="L9" s="10">
         <f>AVERAGE(L4:L8)</f>
@@ -6887,7 +6885,7 @@
       </c>
       <c r="O9" s="9">
         <f>AVERAGE(O4:O8)</f>
-        <v>1065590.8</v>
+        <v>839414.8</v>
       </c>
       <c r="P9" s="10">
         <f>AVERAGE(P4:P8)</f>
@@ -6901,8 +6899,8 @@
         <v>409324.4</v>
       </c>
       <c r="S9" s="9">
-        <f>AVERAGE(S5,S7)</f>
-        <v>408902.5</v>
+        <f>AVERAGE(S4,S5,S7)</f>
+        <v>467390</v>
       </c>
       <c r="T9" s="10">
         <f>AVERAGE(T4:T8)</f>
@@ -7490,7 +7488,7 @@
       <c r="W15" s="2">
         <v>18115960</v>
       </c>
-      <c r="X15" s="7">
+      <c r="X15" s="17">
         <v>33125996</v>
       </c>
       <c r="Y15" s="6">
@@ -7600,7 +7598,7 @@
       <c r="W16" s="2">
         <v>18108787</v>
       </c>
-      <c r="X16" s="7">
+      <c r="X16" s="17">
         <v>33263411</v>
       </c>
       <c r="Y16" s="6">
@@ -7728,8 +7726,8 @@
         <v>18125191</v>
       </c>
       <c r="X17" s="10">
-        <f>AVERAGE(X12:X16)</f>
-        <v>28471926.399999999</v>
+        <f>AVERAGE(X12:X14)</f>
+        <v>25323408.333333332</v>
       </c>
       <c r="Y17" s="8" t="s">
         <v>4</v>
